--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2127849.026302645</v>
+        <v>2125436.11379684</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10689347.14596503</v>
+        <v>10689347.14596504</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>294.4953083751423</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328556</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404347</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145482</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>195.8647474770659</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>236.8621683961325</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128494</v>
@@ -1844,19 +1844,19 @@
         <v>314.5096953211452</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286722</v>
+        <v>110.9843290728828</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783475</v>
+        <v>286.4588952783476</v>
       </c>
       <c r="E17" t="n">
         <v>313.7062237299264</v>
       </c>
       <c r="F17" t="n">
-        <v>338.651899399376</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G17" t="n">
-        <v>342.697579311118</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584045</v>
+        <v>40.96361544584046</v>
       </c>
       <c r="T17" t="n">
         <v>135.6938237972848</v>
@@ -1904,10 +1904,10 @@
         <v>259.5281121277995</v>
       </c>
       <c r="W17" t="n">
-        <v>94.9524060192887</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361336</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y17" t="n">
         <v>318.0137923137182</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629245</v>
+        <v>99.02267475629246</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587697</v>
+        <v>80.39132667587698</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423378</v>
+        <v>78.2098163042338</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059586</v>
+        <v>77.19690168059587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669284</v>
+        <v>97.80166191669285</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198539</v>
+        <v>76.53086857198541</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750271</v>
+        <v>28.12827406750274</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771194</v>
+        <v>20.70800632771197</v>
       </c>
       <c r="S19" t="n">
         <v>121.5448789891065</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C20" t="n">
         <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783476</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
         <v>338.6518993993761</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>231.7564992464778</v>
       </c>
       <c r="H20" t="n">
         <v>226.3836180449851</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584049</v>
+        <v>40.96361544584045</v>
       </c>
       <c r="T20" t="n">
         <v>135.6938237972848</v>
@@ -2138,16 +2138,16 @@
         <v>182.7710256165666</v>
       </c>
       <c r="V20" t="n">
-        <v>165.0938700407428</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W20" t="n">
         <v>281.0168223750777</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629246</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587702</v>
+        <v>80.39132667587698</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423384</v>
+        <v>78.2098163042338</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059591</v>
+        <v>77.19690168059587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669285</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198541</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750277</v>
+        <v>28.12827406750272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.708006327712</v>
+        <v>20.70800632771196</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U22" t="n">
         <v>217.9876918632775</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X22" t="n">
         <v>157.4855090467018</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C23" t="n">
         <v>297.0487454286722</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783476</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F23" t="n">
         <v>338.6518993993761</v>
@@ -2333,7 +2333,7 @@
         <v>342.6975793111181</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449852</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.9636154458405</v>
+        <v>40.96361544584045</v>
       </c>
       <c r="T23" t="n">
         <v>135.6938237972848</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396019</v>
       </c>
       <c r="C25" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629247</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587702</v>
+        <v>80.391326675877</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423384</v>
+        <v>78.20981630423381</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059591</v>
+        <v>77.19690168059589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669286</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198542</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750277</v>
+        <v>28.12827406750272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.708006327712</v>
+        <v>20.70800632771196</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U25" t="n">
         <v>217.9876918632775</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X25" t="n">
         <v>157.4855090467018</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>111.7690391349163</v>
+        <v>111.7690391349165</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>111.7690391349159</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862159</v>
+        <v>99.3621003269342</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333702</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302255</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874279</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390067</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084564</v>
+        <v>257.4761241679871</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>338.9631323201983</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540654</v>
+        <v>222.6491710540653</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492074</v>
+        <v>37.22916845492063</v>
       </c>
       <c r="T41" t="n">
-        <v>110.7567325986647</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256469</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841579</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X41" t="n">
-        <v>297.772507345214</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537274</v>
+        <v>95.28822776537262</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495726</v>
+        <v>76.65687968495715</v>
       </c>
       <c r="E43" t="n">
-        <v>105.8880255488549</v>
+        <v>74.47536931331396</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967615</v>
+        <v>73.46245468967604</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577313</v>
+        <v>94.06721492577302</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106569</v>
+        <v>72.79642158106557</v>
       </c>
       <c r="I43" t="n">
-        <v>24.393827076583</v>
+        <v>24.39382707658289</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679223</v>
+        <v>16.97355933679212</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981868</v>
+        <v>149.2230882337288</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429141</v>
+        <v>147.590355942914</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723578</v>
+        <v>214.2532448723576</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905729</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033359</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7510620557821</v>
+        <v>153.7510620557819</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302255</v>
+        <v>310.7752483302254</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874279</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390067</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084564</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201984</v>
+        <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540654</v>
+        <v>172.4551712651745</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492074</v>
+        <v>37.22916845492063</v>
       </c>
       <c r="T44" t="n">
         <v>131.959376806365</v>
       </c>
       <c r="U44" t="n">
-        <v>96.15317748190643</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
-        <v>297.772507345214</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486822</v>
+        <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>126.7008840009135</v>
+        <v>95.28822776537262</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495726</v>
+        <v>76.65687968495715</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331408</v>
+        <v>74.47536931331396</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967615</v>
+        <v>73.46245468967604</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577313</v>
+        <v>94.06721492577302</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106569</v>
+        <v>72.79642158106557</v>
       </c>
       <c r="I46" t="n">
-        <v>24.393827076583</v>
+        <v>24.39382707658289</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679223</v>
+        <v>16.97355933679212</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981868</v>
+        <v>117.8104319981867</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429141</v>
+        <v>147.590355942914</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723578</v>
+        <v>214.2532448723576</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905729</v>
+        <v>180.1790499905728</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033359</v>
+        <v>214.5644050033358</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7510620557821</v>
+        <v>185.163718291324</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188397</v>
+        <v>146.6260600188396</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1707.656676566317</v>
+        <v>1640.51772658026</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.143792573978</v>
+        <v>1640.51772658026</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.701660921583</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>991.3630412714117</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>627.8267694298775</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>260.2039522229467</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>3262.764786084339</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2979.151531688842</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W11" t="n">
-        <v>2673.832509366801</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2347.816384053795</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>2005.126685026056</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052934</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254598</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611973</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268774</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770417</v>
+        <v>335.4089181770403</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998339</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874599</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5294,34 +5294,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W14" t="n">
-        <v>2898.155827638544</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341043</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064531</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5385,22 +5385,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5416,34 +5416,34 @@
         <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770411</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998333</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
         <v>1550.274078843938</v>
@@ -5455,7 +5455,7 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
         <v>2256.956805813346</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1661.020543853841</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C17" t="n">
         <v>1360.971306047101</v>
@@ -5498,7 +5498,7 @@
         <v>1071.618886574022</v>
       </c>
       <c r="E17" t="n">
-        <v>754.7439131094502</v>
+        <v>754.7439131094503</v>
       </c>
       <c r="F17" t="n">
         <v>412.6712874535148</v>
@@ -5513,25 +5513,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T17" t="n">
         <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>2962.546766195341</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V17" t="n">
-        <v>2700.397157985442</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W17" t="n">
-        <v>2604.485636753838</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2299.93315762643</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>1978.70710478429</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061027</v>
+        <v>609.2207265061028</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118678</v>
+        <v>509.197822711868</v>
       </c>
       <c r="D19" t="n">
         <v>427.9944624332043</v>
@@ -5659,43 +5659,43 @@
         <v>348.9946479844833</v>
       </c>
       <c r="F19" t="n">
-        <v>271.017979620245</v>
+        <v>271.0179796202451</v>
       </c>
       <c r="G19" t="n">
         <v>172.2284221286361</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016595</v>
+        <v>94.92451448016598</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261639</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925713</v>
       </c>
       <c r="N19" t="n">
         <v>1346.371895631577</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.70149455199</v>
+        <v>1645.701494551991</v>
       </c>
       <c r="P19" t="n">
         <v>1878.30899498565</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138164</v>
+        <v>1955.919291138165</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029364</v>
+        <v>1935.002113029365</v>
       </c>
       <c r="S19" t="n">
         <v>1812.229507989863</v>
@@ -5710,13 +5710,13 @@
         <v>1253.415374880162</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976873</v>
+        <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125282</v>
+        <v>873.8352122125284</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026702</v>
+        <v>721.9559122026703</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.690865111402</v>
+        <v>1777.629168076412</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304663</v>
+        <v>1477.579930269672</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831584</v>
+        <v>1188.227510796593</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4142343670119</v>
+        <v>871.3525373320211</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110759</v>
+        <v>529.2799116760857</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897442</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5786,16 +5786,16 @@
         <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2795.785281305702</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W20" t="n">
-        <v>2511.92990516926</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X20" t="n">
-        <v>2207.377426041852</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.377426041852</v>
+        <v>2095.315729006861</v>
       </c>
     </row>
     <row r="21">
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.220726506103</v>
+        <v>609.2207265061027</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118682</v>
+        <v>509.1978227118679</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332045</v>
+        <v>427.9944624332043</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844835</v>
+        <v>348.9946479844833</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202452</v>
+        <v>271.017979620245</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286362</v>
+        <v>172.2284221286361</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016601</v>
+        <v>94.92451448016597</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5914,16 +5914,16 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261633</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925712</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631577</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.701494551991</v>
+        <v>1645.70149455199</v>
       </c>
       <c r="P22" t="n">
         <v>1878.30899498565</v>
@@ -5935,25 +5935,25 @@
         <v>1935.002113029365</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U22" t="n">
         <v>1439.186583952377</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W22" t="n">
         <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125287</v>
+        <v>873.8352122125284</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026707</v>
+        <v>721.9559122026703</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957346</v>
+        <v>1308.791537957347</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927743</v>
+        <v>991.9165644927748</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368388</v>
+        <v>649.8439388368394</v>
       </c>
       <c r="G23" t="n">
         <v>303.6847678155074</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8935775169721</v>
+        <v>263.8935775169722</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7129512068186</v>
+        <v>597.7129512068188</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.747164455227</v>
+        <v>1048.747164455228</v>
       </c>
       <c r="M23" t="n">
-        <v>1582.279069127152</v>
+        <v>1582.279069127153</v>
       </c>
       <c r="N23" t="n">
-        <v>2129.057886185934</v>
+        <v>2129.057886185935</v>
       </c>
       <c r="O23" t="n">
-        <v>2632.030357065271</v>
+        <v>2632.030357065272</v>
       </c>
       <c r="P23" t="n">
-        <v>3168.167803157289</v>
+        <v>3168.16780315729</v>
       </c>
       <c r="Q23" t="n">
-        <v>3626.646005666277</v>
+        <v>3626.646005666278</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897332</v>
+        <v>3750.722327897333</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558099</v>
+        <v>3709.344938558101</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075993</v>
+        <v>3572.280470075995</v>
       </c>
       <c r="U23" t="n">
         <v>3387.663272483503</v>
@@ -6026,13 +6026,13 @@
         <v>3125.513664273604</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137161</v>
+        <v>2841.658288137162</v>
       </c>
       <c r="X23" t="n">
         <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167614</v>
+        <v>2215.879756167615</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.0461846068715</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.5931553257445</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644934</v>
       </c>
       <c r="E24" t="n">
-        <v>467.421290659038</v>
+        <v>467.4212906590378</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.8867326859229</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185411</v>
+        <v>184.5236325185417</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640867</v>
+        <v>94.02173815640907</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6917160485639</v>
+        <v>168.6917160485638</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289111</v>
+        <v>406.9559150289112</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415765</v>
+        <v>773.6540753415763</v>
       </c>
       <c r="M24" t="n">
         <v>1220.930400563892</v>
@@ -6105,10 +6105,10 @@
         <v>1788.110677325628</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.873320597427</v>
+        <v>1533.873320597426</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.021820391894</v>
+        <v>1326.021820391893</v>
       </c>
       <c r="Y24" t="n">
         <v>1118.26152162694</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318663</v>
+        <v>617.7230566318661</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376314</v>
+        <v>517.7001528376313</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589677</v>
+        <v>436.4967925589676</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102467</v>
+        <v>357.4969781102466</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460084</v>
+        <v>279.5203097460083</v>
       </c>
       <c r="G25" t="n">
         <v>180.7307522543994</v>
@@ -6142,55 +6142,55 @@
         <v>103.4268446059292</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1370790048822</v>
+        <v>120.1370790048823</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537586</v>
+        <v>324.1242619537587</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022548</v>
+        <v>640.684060402255</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018038</v>
+        <v>984.8411060018041</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.874225757341</v>
+        <v>1326.249482707669</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677754</v>
+        <v>1625.579081628082</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111414</v>
+        <v>1858.186582061742</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263929</v>
+        <v>1964.421621263928</v>
       </c>
       <c r="R25" t="n">
         <v>1943.504443155128</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115627</v>
+        <v>1820.731838115626</v>
       </c>
       <c r="T25" t="n">
         <v>1667.878501818825</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078141</v>
+        <v>1447.68891407814</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005926</v>
+        <v>1261.917705005925</v>
       </c>
       <c r="W25" t="n">
         <v>1041.413814102637</v>
       </c>
       <c r="X25" t="n">
-        <v>882.337542338292</v>
+        <v>882.3375423382918</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284339</v>
+        <v>730.4582423284338</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6233,19 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2200.052303407781</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737236</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6257,7 +6257,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6303,13 +6303,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,28 +6464,28 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>875.9322461484376</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1326.966459396846</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
         <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285457</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6494,19 +6494,19 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257042</v>
@@ -6607,28 +6607,28 @@
         <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6649,10 +6649,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,52 +6698,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O32" t="n">
-        <v>3182.560655874485</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3577.335022231663</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6777,10 +6777,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803191</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6917,70 +6917,70 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7005,16 +7005,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389142</v>
+        <v>543.5641013650709</v>
       </c>
       <c r="C37" t="n">
-        <v>529.3375166107159</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D37" t="n">
-        <v>379.2208771983802</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898304</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657634</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
         <v>1612.513483058689</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.410616184332</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891712</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649972</v>
+        <v>748.662276191154</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953105</v>
+        <v>626.5411316214672</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7178,19 +7178,19 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052369</v>
@@ -7205,19 +7205,19 @@
         <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389138</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C40" t="n">
-        <v>529.337516610716</v>
+        <v>482.1403303423789</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983802</v>
+        <v>430.6951255038866</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>381.4534664953368</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>333.2349535712699</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>264.2035515198322</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309817</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>886.8213698466994</v>
       </c>
       <c r="X40" t="n">
-        <v>946.0051453388403</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953102</v>
+        <v>635.3821089528387</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1524.670850701587</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C41" t="n">
-        <v>1228.393781572544</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D41" t="n">
-        <v>942.8135307771622</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="E41" t="n">
-        <v>629.7107259902868</v>
+        <v>893.8741644546587</v>
       </c>
       <c r="F41" t="n">
-        <v>291.4102690120474</v>
+        <v>633.7972713556818</v>
       </c>
       <c r="G41" t="n">
         <v>291.4102690120474</v>
@@ -7412,7 +7412,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3176.125113474236</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>2995.280084559441</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>2736.902645027239</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2456.819437568494</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X41" t="n">
-        <v>2156.039127118783</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>1838.58524295434</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="42">
@@ -7488,13 +7488,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.5455015557014</v>
+        <v>582.8155457622252</v>
       </c>
       <c r="C43" t="n">
-        <v>518.2947664391634</v>
+        <v>486.5648106456871</v>
       </c>
       <c r="D43" t="n">
-        <v>440.8635748381964</v>
+        <v>409.1336190447203</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736965</v>
+        <v>333.9059732736961</v>
       </c>
       <c r="F43" t="n">
-        <v>259.701473587155</v>
+        <v>259.7014735871546</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732427</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246928</v>
+        <v>91.15234580246917</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.149538657389</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295585</v>
+        <v>1759.419146502108</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820015</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425497</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999056</v>
       </c>
       <c r="X43" t="n">
-        <v>871.6156499067337</v>
+        <v>839.8856941132572</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.5085185745723</v>
+        <v>691.778562781096</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.057853045221</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241535</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120797</v>
+        <v>921.3967184461529</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339212</v>
+        <v>921.3967184461529</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556824</v>
+        <v>583.0962614679142</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242788</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
         <v>3154.708301143225</v>
       </c>
       <c r="U44" t="n">
-        <v>3057.58387944433</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2799.206439912128</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2799.206439912128</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.426129462417</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297974</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.5455015557014</v>
+        <v>582.8155457622252</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456878</v>
+        <v>486.5648106456871</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447208</v>
+        <v>409.1336190447203</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736965</v>
+        <v>333.9059732736961</v>
       </c>
       <c r="F46" t="n">
-        <v>259.701473587155</v>
+        <v>259.7014735871546</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732427</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246928</v>
+        <v>91.15234580246917</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7828,7 +7828,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.149538657389</v>
+        <v>1910.14953865739</v>
       </c>
       <c r="S46" t="n">
         <v>1791.149102295585</v>
@@ -7846,10 +7846,10 @@
         <v>1026.919752993382</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067337</v>
+        <v>839.8856941132572</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5085185745723</v>
+        <v>691.778562781096</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331815</v>
+        <v>161.2833466331808</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772619</v>
+        <v>190.4708996772609</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114944</v>
+        <v>199.0214867114931</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499977</v>
+        <v>189.4604205499962</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253964</v>
+        <v>187.8656757253949</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001311</v>
+        <v>190.8661912001297</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610386</v>
+        <v>197.7493741610375</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168187</v>
+        <v>197.1608845168178</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723705</v>
+        <v>115.0671825723701</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484548</v>
+        <v>117.7238752484541</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888323</v>
+        <v>111.5038326888314</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586512</v>
+        <v>110.5673213586501</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809867</v>
+        <v>98.93952256809752</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195531</v>
+        <v>112.954571319552</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755406</v>
+        <v>110.1843514755398</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137827</v>
+        <v>124.0787517137821</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.356265474762</v>
+        <v>119.3562654747614</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960292</v>
+        <v>122.5532519960286</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290576</v>
+        <v>111.702314729057</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297874</v>
+        <v>123.6934388297869</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182096</v>
+        <v>125.0956219182091</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-6.616969082665186e-14</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>142.7909896311508</v>
+        <v>142.7909896311511</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>65.51711806374215</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>274.8351763665419</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>402.5500016878925</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>108.7354935515724</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.06989098845861</v>
+        <v>15.0698909884586</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.26339666974575</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587229</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.849898674474389e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>126.8912165828106</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4006336413285</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>186.0644163557894</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.383618044985</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>186.0644163557889</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>110.9410800646403</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24026,16 +24026,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>94.43424208705679</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>77.44132824046912</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>21.20264420770032</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889078</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,13 +25919,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>82.88340114374046</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841579</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>887016.8589053148</v>
+        <v>887016.8589053142</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780094.5690030662</v>
+        <v>780094.5690030663</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>784152.1950365802</v>
+        <v>784152.1950365804</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>784152.1950365802</v>
+        <v>784152.1950365804</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>634953.5268079352</v>
+        <v>634953.5268079349</v>
       </c>
       <c r="E2" t="n">
-        <v>592511.5326646286</v>
+        <v>592511.532664628</v>
       </c>
       <c r="F2" t="n">
-        <v>592511.532664628</v>
+        <v>592511.5326646279</v>
       </c>
       <c r="G2" t="n">
-        <v>610863.4524026359</v>
+        <v>610863.4524026358</v>
       </c>
       <c r="H2" t="n">
-        <v>610863.4524026354</v>
+        <v>610863.4524026362</v>
       </c>
       <c r="I2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="J2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="K2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="L2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="M2" t="n">
         <v>636307.3716448192</v>
       </c>
-      <c r="J2" t="n">
-        <v>636307.3716448197</v>
-      </c>
-      <c r="K2" t="n">
-        <v>636307.3716448196</v>
-      </c>
-      <c r="L2" t="n">
-        <v>636307.3716448195</v>
-      </c>
-      <c r="M2" t="n">
-        <v>636307.37164482</v>
-      </c>
       <c r="N2" t="n">
-        <v>636307.3716448189</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="O2" t="n">
-        <v>614088.7448908139</v>
+        <v>614088.7448908136</v>
       </c>
       <c r="P2" t="n">
-        <v>614088.7448908138</v>
+        <v>614088.7448908137</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264855</v>
+        <v>49603.99004265032</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112468</v>
+        <v>1114814.601112466</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899428</v>
+        <v>16999.20777899427</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716351</v>
+        <v>28261.85161716363</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225416</v>
+        <v>40637.45238225402</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.2077789943</v>
+        <v>16999.20777899429</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>429644.5458935881</v>
+        <v>429644.5458935875</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362316</v>
+        <v>59435.44534362314</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.44534362308</v>
       </c>
       <c r="G4" t="n">
-        <v>72844.10175942461</v>
+        <v>72844.10175942462</v>
       </c>
       <c r="H4" t="n">
-        <v>72844.10175942456</v>
+        <v>72844.10175942458</v>
       </c>
       <c r="I4" t="n">
-        <v>88805.64290420641</v>
+        <v>88805.64290420644</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.5572993633</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936333</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936331</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="O4" t="n">
-        <v>75210.52190087907</v>
+        <v>75210.52190087915</v>
       </c>
       <c r="P4" t="n">
-        <v>75210.52190087907</v>
+        <v>75210.52190087916</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253468</v>
+        <v>34890.26850253473</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.8763202471</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="H5" t="n">
         <v>80041.87632024709</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582714</v>
+        <v>86503.64721582716</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>80355.82754432672</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154286.9422333119</v>
+        <v>154282.5286554439</v>
       </c>
       <c r="C6" t="n">
-        <v>154286.9422333119</v>
+        <v>154282.5286554439</v>
       </c>
       <c r="D6" t="n">
-        <v>120814.7223691639</v>
+        <v>120810.3551277529</v>
       </c>
       <c r="E6" t="n">
-        <v>-659994.0071132445</v>
+        <v>-660135.2840131794</v>
       </c>
       <c r="F6" t="n">
-        <v>454820.5939992231</v>
+        <v>454679.317099287</v>
       </c>
       <c r="G6" t="n">
-        <v>440978.26654397</v>
+        <v>440896.1893851242</v>
       </c>
       <c r="H6" t="n">
-        <v>457977.4743229637</v>
+        <v>457895.3971641187</v>
       </c>
       <c r="I6" t="n">
-        <v>432736.2299076221</v>
+        <v>432736.2299076222</v>
       </c>
       <c r="J6" t="n">
-        <v>419382.4202883961</v>
+        <v>419382.420288396</v>
       </c>
       <c r="K6" t="n">
-        <v>460019.8726706502</v>
+        <v>460019.8726706503</v>
       </c>
       <c r="L6" t="n">
-        <v>443020.6648916557</v>
+        <v>443020.6648916556</v>
       </c>
       <c r="M6" t="n">
-        <v>260046.7193926765</v>
+        <v>260046.7193926757</v>
       </c>
       <c r="N6" t="n">
-        <v>462214.8193853998</v>
+        <v>462214.8193854</v>
       </c>
       <c r="O6" t="n">
-        <v>458522.3954456081</v>
+        <v>458450.7224560787</v>
       </c>
       <c r="P6" t="n">
-        <v>458522.395445608</v>
+        <v>458450.7224560787</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859253</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.22414634233537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>68.22414634233537</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.22414634233536</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="G2" t="n">
-        <v>68.22414634233539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>68.22414634233533</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68.22414634233533</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="P2" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.9205735107653</v>
+        <v>57.92057351076737</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>937.680581974333</v>
+        <v>937.6805819743333</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374285</v>
+        <v>21.24900972374284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484978</v>
+        <v>25.72612689484973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>21.24900972374287</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951231</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.9205735107653</v>
+        <v>57.92057351076737</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082533</v>
+        <v>1031.856127082531</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720402</v>
+        <v>106.2791265720407</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428143</v>
+        <v>76.65587923428109</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374285</v>
+        <v>21.24900972374284</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484978</v>
+        <v>25.72612689484973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.090162624442</v>
+        <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507123</v>
+        <v>201.499073850712</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098106</v>
+        <v>135.24257230981</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596059</v>
+        <v>203.7140793596057</v>
       </c>
       <c r="T8" t="n">
         <v>222.0765638936052</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858954</v>
+        <v>85.10723188858938</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643187</v>
+        <v>92.4227054864316</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659313</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508934</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112975</v>
+        <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284947</v>
+        <v>85.97478175284921</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657826</v>
+        <v>10.13465691657782</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156883</v>
+        <v>77.41603665156852</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348048</v>
+        <v>172.5970773348047</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005766</v>
+        <v>222.1963728005765</v>
       </c>
       <c r="T10" t="n">
         <v>227.499316156969</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.9138818683561</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>28.91388186835519</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233539</v>
+        <v>68.22414634233537</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>28.91388186835542</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>28.91388186835599</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233537</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>28.91388186835587</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.91388186835508</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233536</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>55.47778196371152</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>55.47778196371198</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810488</v>
+        <v>45.39291458738658</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="C41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="D41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="E41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="F41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="G41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="H41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="T41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="U41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="V41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="W41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="X41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="C43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="D43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="E43" t="n">
-        <v>40.54593709771429</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="F43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="G43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="H43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="I43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="S43" t="n">
-        <v>71.9585933332551</v>
+        <v>40.54593709771311</v>
       </c>
       <c r="T43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="U43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="V43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="W43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="X43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="C44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="D44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="E44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="F44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="G44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="H44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="T44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="U44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="V44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="W44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="X44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="C46" t="n">
-        <v>40.54593709771432</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="D46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="E46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="F46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="G46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="H46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="I46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="T46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="U46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="V46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="W46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
       <c r="X46" t="n">
-        <v>71.9585933332551</v>
+        <v>40.54593709771316</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.9585933332551</v>
+        <v>71.95859333325521</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764432</v>
+        <v>0.2328465266764516</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325125</v>
+        <v>2.38463949132521</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693587</v>
+        <v>8.976815719693908</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350479</v>
+        <v>19.7625578935055</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771864</v>
+        <v>29.6189513677197</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849285</v>
+        <v>36.74492825849416</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727505</v>
+        <v>40.8858126772765</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119449</v>
+        <v>41.54738787119597</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155561</v>
+        <v>39.23202022155701</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423091</v>
+        <v>33.4836215942321</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763078</v>
+        <v>25.14480535763168</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133914</v>
+        <v>14.62654563133966</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639456</v>
+        <v>5.305990226639645</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526131</v>
+        <v>1.019285670526167</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411546</v>
+        <v>0.01862772213411612</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986273</v>
+        <v>0.1245838750986317</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610427</v>
+        <v>1.20321795161047</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825544</v>
+        <v>4.289400962825697</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429618</v>
+        <v>11.77044409429661</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590421</v>
+        <v>20.11756372590493</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104185</v>
+        <v>27.05054709104282</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336708</v>
+        <v>31.56671256336821</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523464</v>
+        <v>32.4021895152358</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489137</v>
+        <v>29.64167312489243</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593878962</v>
+        <v>23.79005593879047</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223881</v>
+        <v>15.90302237223938</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211263</v>
+        <v>7.73512866621154</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906518</v>
+        <v>2.3140908379066</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282387</v>
+        <v>0.5021604439282565</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278112</v>
+        <v>0.008196307572278405</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.104446935839085</v>
+        <v>0.1044469358390887</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693196</v>
+        <v>0.9286282113693528</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960847</v>
+        <v>3.141004215960959</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823306</v>
+        <v>7.38439836382357</v>
       </c>
       <c r="K10" t="n">
-        <v>12.1348349093046</v>
+        <v>12.13483490930503</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647632</v>
+        <v>15.52841080647688</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157583</v>
+        <v>16.37253195157642</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617562</v>
+        <v>15.98322973617619</v>
       </c>
       <c r="O10" t="n">
-        <v>14.7630996220554</v>
+        <v>14.76309962205592</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093805</v>
+        <v>12.6323821309385</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125559</v>
+        <v>8.746006600125872</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364674</v>
+        <v>4.696314042364841</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395689</v>
+        <v>1.820225236395754</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124538</v>
+        <v>0.4462732713124697</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222822</v>
+        <v>0.005697105591223025</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33497,13 +33497,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35662,7 +35662,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193706</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35811,7 +35811,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385542</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>373.7708280358952</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385535</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>331.2670120909958</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>541.5529758505227</v>
+        <v>541.5529758505231</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597706</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>373.7708280358959</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>107.3081204062488</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>617.8189534766536</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36832,13 +36832,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>612.0264629219424</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>845.6086111391511</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>941.4711175181193</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>359.5297983552919</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637023</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37561,7 +37561,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37780,13 +37780,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
